--- a/excel.xlsx
+++ b/excel.xlsx
@@ -13520,9 +13520,6 @@
       <c r="R2" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado, la ponderación no suma 100%</v>
       </c>
-      <c r="T2" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U2" s="4" t="str">
         <v>gmendoza@tasa.com.pe</v>
       </c>
@@ -13685,9 +13682,6 @@
       <c r="P5" s="4" t="str">
         <v>101073-t</v>
       </c>
-      <c r="T5" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U5" s="4" t="str">
         <v>clapa@tasa.com.pe</v>
       </c>
@@ -13741,9 +13735,6 @@
       <c r="R6" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T6" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U6" s="4" t="str">
         <v>pcondor@tasa.com.pe</v>
       </c>
@@ -13794,9 +13785,6 @@
       <c r="R7" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T7" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U7" s="4" t="str">
         <v>jcorbera@tasa.com.pe</v>
       </c>
@@ -13895,7 +13883,7 @@
         <v>100448-t</v>
       </c>
       <c r="T9" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
+        <v>otro username en Rankmi</v>
       </c>
       <c r="U9" s="4" t="str">
         <v>gderomana@tasa.com.pe</v>
@@ -13947,9 +13935,6 @@
       <c r="N10" s="4" t="str">
         <v>100509-t</v>
       </c>
-      <c r="T10" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U10" s="4" t="str">
         <v>lodar@tasa.com.pe</v>
       </c>
@@ -14000,9 +13985,6 @@
       <c r="R11" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T11" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U11" s="4" t="str">
         <v>hrodriguez@tasa.com.pe</v>
       </c>
@@ -14056,9 +14038,6 @@
       <c r="R12" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T12" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U12" s="4" t="str">
         <v>dzegarraballon@tasa.com.pe</v>
       </c>
@@ -14112,9 +14091,6 @@
       <c r="R13" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T13" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U13" s="4" t="str">
         <v>jhdelgado@tasa.com.pe</v>
       </c>
@@ -14166,7 +14142,7 @@
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
       <c r="T14" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi, usuario pertenece a otro usuario (100238-t)</v>
+        <v>otro username en Rankmi, usuario pertenece a otro usuario (100238-t)</v>
       </c>
       <c r="U14" s="4" t="str">
         <v>mchumbe@tasa.com.pe</v>
@@ -14215,9 +14191,6 @@
       <c r="M15" s="4" t="str">
         <v>100846-t</v>
       </c>
-      <c r="T15" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U15" s="4" t="str">
         <v>joacevedo@tasa.com.pe</v>
       </c>
@@ -14268,9 +14241,6 @@
       <c r="N16" s="4" t="str">
         <v>200028-t</v>
       </c>
-      <c r="T16" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U16" s="4" t="str">
         <v>gsoko@tasa.com.pe</v>
       </c>
@@ -14324,9 +14294,6 @@
       <c r="R17" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T17" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U17" s="4" t="str">
         <v>lvera@tasa.com.pe</v>
       </c>
@@ -14380,9 +14347,6 @@
       <c r="R18" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T18" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U18" s="4" t="str">
         <v>mmatta@tasa.com.pe</v>
       </c>
@@ -14489,9 +14453,6 @@
       <c r="R20" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T20" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U20" s="4" t="str">
         <v>yormeno@tasa.com.pe</v>
       </c>
@@ -14545,9 +14506,6 @@
       <c r="R21" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T21" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U21" s="4" t="str">
         <v>gcaceres@tasa.com.pe</v>
       </c>
@@ -14598,9 +14556,6 @@
       <c r="N22" s="4" t="str">
         <v>100558-t</v>
       </c>
-      <c r="T22" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U22" s="4" t="str">
         <v>garce@tasa.com.pe</v>
       </c>
@@ -14651,9 +14606,6 @@
       <c r="R23" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T23" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U23" s="4" t="str">
         <v>pmunoz@tasa.com.pe</v>
       </c>
@@ -14704,9 +14656,6 @@
       <c r="R24" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T24" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U24" s="4" t="str">
         <v>lbejarm@tasa.com.pe</v>
       </c>
@@ -14754,9 +14703,6 @@
       <c r="M25" s="4" t="str">
         <v>1190075-t</v>
       </c>
-      <c r="T25" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U25" s="4" t="str">
         <v>rolarte@tasa.com.pe</v>
       </c>
@@ -14808,7 +14754,7 @@
         <v>101032-t</v>
       </c>
       <c r="T26" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
+        <v>otro username en Rankmi</v>
       </c>
       <c r="U26" s="4" t="str">
         <v>fbaracco@tasa.com.pe</v>
@@ -14860,9 +14806,6 @@
       <c r="N27" s="4" t="str">
         <v>100185-t</v>
       </c>
-      <c r="T27" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U27" s="4" t="str">
         <v>ycorzo@tasa.com.pe</v>
       </c>
@@ -14913,9 +14856,6 @@
       <c r="N28" s="4" t="str">
         <v>100709-t</v>
       </c>
-      <c r="T28" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U28" s="4" t="str">
         <v>mmancini@tasa.com.pe</v>
       </c>
@@ -14963,9 +14903,6 @@
       <c r="M29" s="4" t="str">
         <v>100560-t</v>
       </c>
-      <c r="T29" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U29" s="4" t="str">
         <v>maxgarcia@tasa.com.pe</v>
       </c>
@@ -15016,9 +14953,6 @@
       <c r="N30" s="4" t="str">
         <v>100020-t</v>
       </c>
-      <c r="T30" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U30" s="4" t="str">
         <v>storres@tasa.com.pe</v>
       </c>
@@ -15070,7 +15004,7 @@
         <v>identifier duplicado, username duplicado</v>
       </c>
       <c r="T31" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
+        <v>otro correo en Rankmi</v>
       </c>
       <c r="U31" s="4" t="str">
         <v>rnamihas@tasa.com.pe</v>
@@ -15172,9 +15106,6 @@
       <c r="N33" s="4" t="str">
         <v>100632-t</v>
       </c>
-      <c r="T33" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U33" s="4" t="str">
         <v>cangulo@tasa.com.pe</v>
       </c>
@@ -15228,9 +15159,6 @@
       <c r="R34" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T34" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U34" s="4" t="str">
         <v>msotelo@tasa.com.pe</v>
       </c>
@@ -15284,9 +15212,6 @@
       <c r="R35" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T35" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U35" s="4" t="str">
         <v>ipaz@tasa.com.pe</v>
       </c>
@@ -15340,9 +15265,6 @@
       <c r="R36" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T36" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U36" s="4" t="str">
         <v>mqueque@tasa.com.pe</v>
       </c>
@@ -15393,9 +15315,6 @@
       <c r="N37" s="4" t="str">
         <v>100433-t</v>
       </c>
-      <c r="T37" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U37" s="4" t="str">
         <v>mpatzl@tasa.com.pe</v>
       </c>
@@ -15449,9 +15368,6 @@
       <c r="R38" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T38" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U38" s="4" t="str">
         <v>mtengan@tasa.com.pe</v>
       </c>
@@ -15502,9 +15418,6 @@
       <c r="N39" s="4" t="str">
         <v>100918-t</v>
       </c>
-      <c r="T39" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U39" s="4" t="str">
         <v>jyzaguirre@tasa.com.pe</v>
       </c>
@@ -15555,9 +15468,6 @@
       <c r="N40" s="4" t="str">
         <v>100706-t</v>
       </c>
-      <c r="T40" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U40" s="4" t="str">
         <v>jtejada@tasa.com.pe</v>
       </c>
@@ -15608,9 +15518,6 @@
       <c r="N41" s="4" t="str">
         <v>1290087-t</v>
       </c>
-      <c r="T41" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U41" s="4" t="str">
         <v>jolivares@tasa.com.pe</v>
       </c>
@@ -15664,9 +15571,6 @@
       <c r="R42" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T42" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U42" s="4" t="str">
         <v>gsoto@tasa.com.pe</v>
       </c>
@@ -15717,9 +15621,6 @@
       <c r="R43" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T43" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U43" s="4" t="str">
         <v>lmirpuri@tasa.com.pe</v>
       </c>
@@ -15770,9 +15671,6 @@
       <c r="N44" s="4" t="str">
         <v>100440-t</v>
       </c>
-      <c r="T44" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U44" s="4" t="str">
         <v>jaguirre@tasa.com.pe</v>
       </c>
@@ -15876,9 +15774,6 @@
       <c r="R46" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T46" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U46" s="4" t="str">
         <v>rjuscamaita@tasa.com.pe</v>
       </c>
@@ -15929,9 +15824,6 @@
       <c r="N47" s="4" t="str">
         <v>101030-t</v>
       </c>
-      <c r="T47" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U47" s="4" t="str">
         <v>rchomba@tasa.com.pe</v>
       </c>
@@ -15982,9 +15874,6 @@
       <c r="R48" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T48" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U48" s="4" t="str">
         <v>jbaylon@tasa.com.pe</v>
       </c>
@@ -16035,9 +15924,6 @@
       <c r="N49" s="4" t="str">
         <v>700447-t</v>
       </c>
-      <c r="T49" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U49" s="4" t="str">
         <v>bcornejo@tasa.com.pe</v>
       </c>
@@ -16088,9 +15974,6 @@
       <c r="N50" s="4" t="str">
         <v>200070-t</v>
       </c>
-      <c r="T50" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U50" s="4" t="str">
         <v>aboca@tasa.com.pe</v>
       </c>
@@ -16141,9 +16024,6 @@
       <c r="N51" s="4" t="str">
         <v>1180044-t</v>
       </c>
-      <c r="T51" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U51" s="4" t="str">
         <v>msilva@tasa.com.pe</v>
       </c>
@@ -16194,9 +16074,6 @@
       <c r="N52" s="4" t="str">
         <v>100771-t</v>
       </c>
-      <c r="T52" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U52" s="4" t="str">
         <v>fromero@tasa.com.pe</v>
       </c>
@@ -16250,9 +16127,6 @@
       <c r="R53" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T53" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U53" s="4" t="str">
         <v>bperezpalma@tasa.com.pe</v>
       </c>
@@ -16303,9 +16177,6 @@
       <c r="N54" s="4" t="str">
         <v>700120-t</v>
       </c>
-      <c r="T54" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U54" s="4" t="str">
         <v>jbuiza@tasa.com.pe</v>
       </c>
@@ -16356,9 +16227,6 @@
       <c r="N55" s="4" t="str">
         <v>1230010-t</v>
       </c>
-      <c r="T55" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U55" s="4" t="str">
         <v>lferreyros@tasa.com.pe</v>
       </c>
@@ -16459,9 +16327,6 @@
       <c r="N57" s="4" t="str">
         <v>250045-t</v>
       </c>
-      <c r="T57" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U57" s="4" t="str">
         <v>acastaneda@tasa.com.pe</v>
       </c>
@@ -16512,9 +16377,6 @@
       <c r="N58" s="4" t="str">
         <v>1210107-t</v>
       </c>
-      <c r="T58" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U58" s="4" t="str">
         <v>gumedina@tasa.com.pe</v>
       </c>
@@ -16565,9 +16427,6 @@
       <c r="N59" s="4" t="str">
         <v>951903-t</v>
       </c>
-      <c r="T59" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U59" s="4" t="str">
         <v>jdelcampo@tasa.com.pe</v>
       </c>
@@ -16662,9 +16521,6 @@
       <c r="M61" s="4" t="str">
         <v>100945-t</v>
       </c>
-      <c r="T61" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U61" s="4" t="str">
         <v>aportugal@tasa.com.pe</v>
       </c>
@@ -16712,9 +16568,6 @@
       <c r="N62" s="4" t="str">
         <v>100131-t</v>
       </c>
-      <c r="T62" s="4" t="str">
-        <v>otro correo en Rankmi</v>
-      </c>
       <c r="U62" s="4" t="str">
         <v>lrens@tasa.com.pe</v>
       </c>
@@ -16765,9 +16618,6 @@
       <c r="N63" s="4" t="str">
         <v>700082-t</v>
       </c>
-      <c r="T63" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U63" s="4" t="str">
         <v>dzimmermann@tasa.com.pe</v>
       </c>
@@ -16821,9 +16671,6 @@
       <c r="R64" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T64" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U64" s="4" t="str">
         <v>ocamacho@tasa.com.pe</v>
       </c>
@@ -16874,9 +16721,6 @@
       <c r="R65" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T65" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U65" s="4" t="str">
         <v>frvargas@tasa.com.pe</v>
       </c>
@@ -16930,9 +16774,6 @@
       <c r="R66" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T66" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U66" s="4" t="str">
         <v>ysandoval@tasa.com.pe</v>
       </c>
@@ -16986,9 +16827,6 @@
       <c r="R67" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T67" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U67" s="4" t="str">
         <v>ychunga@tasa.com.pe</v>
       </c>
@@ -17042,9 +16880,6 @@
       <c r="R68" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T68" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U68" s="4" t="str">
         <v>ebuenano@tasa.com.pe</v>
       </c>
@@ -17095,9 +16930,6 @@
       <c r="R69" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T69" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U69" s="4" t="str">
         <v>csalinas@tasa.com.pe</v>
       </c>
@@ -17148,9 +16980,6 @@
       <c r="N70" s="4" t="str">
         <v>400005-t</v>
       </c>
-      <c r="T70" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U70" s="4" t="str">
         <v>jrivera@tasa.com.pe</v>
       </c>
@@ -17204,9 +17033,6 @@
       <c r="R71" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T71" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U71" s="4" t="str">
         <v>zvasquez@tasa.com.pe</v>
       </c>
@@ -17257,9 +17083,6 @@
       <c r="N72" s="4" t="str">
         <v>100746-t</v>
       </c>
-      <c r="T72" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U72" s="4" t="str">
         <v>nhuaman@tasa.com.pe</v>
       </c>
@@ -17313,9 +17136,6 @@
       <c r="R73" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T73" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U73" s="4" t="str">
         <v>pcolonna@tasa.com.pe</v>
       </c>
@@ -17369,9 +17189,6 @@
       <c r="R74" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T74" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U74" s="4" t="str">
         <v>sarteaga@tasa.com.pe</v>
       </c>
@@ -17425,9 +17242,6 @@
       <c r="R75" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T75" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U75" s="4" t="str">
         <v>jarismendiz@tasa.com.pe</v>
       </c>
@@ -17481,9 +17295,6 @@
       <c r="R76" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T76" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U76" s="4" t="str">
         <v>jverde@tasa.com.pe</v>
       </c>
@@ -17531,9 +17342,6 @@
       <c r="M77" s="4" t="str">
         <v>900047-t</v>
       </c>
-      <c r="T77" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U77" s="4" t="str">
         <v>apuicon@tasa.com.pe</v>
       </c>
@@ -17584,9 +17392,6 @@
       <c r="R78" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T78" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U78" s="4" t="str">
         <v>rorozco@tasa.com.pe</v>
       </c>
@@ -17640,9 +17445,6 @@
       <c r="R79" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T79" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U79" s="4" t="str">
         <v>paliaga@tasa.com.pe</v>
       </c>
@@ -17693,9 +17495,6 @@
       <c r="N80" s="4" t="str">
         <v>700431-t</v>
       </c>
-      <c r="T80" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U80" s="4" t="str">
         <v>eocharan@tasa.com.pe</v>
       </c>
@@ -17749,9 +17548,6 @@
       <c r="R81" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T81" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U81" s="4" t="str">
         <v>scorcuera@tasa.com.pe</v>
       </c>
@@ -17802,9 +17598,6 @@
       <c r="N82" s="4" t="str">
         <v>700353-t</v>
       </c>
-      <c r="T82" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U82" s="4" t="str">
         <v>juramos@tasa.com.pe</v>
       </c>
@@ -17858,9 +17651,6 @@
       <c r="R83" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T83" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U83" s="4" t="str">
         <v>psolis@tasa.com.pe</v>
       </c>
@@ -17911,9 +17701,6 @@
       <c r="R84" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T84" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U84" s="4" t="str">
         <v>luquispe@tasa.com.pe</v>
       </c>
@@ -17967,9 +17754,6 @@
       <c r="R85" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T85" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U85" s="4" t="str">
         <v>wcaruajulca@tasa.com.pe</v>
       </c>
@@ -18023,9 +17807,6 @@
       <c r="R86" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T86" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U86" s="4" t="str">
         <v>emore@tasa.com.pe</v>
       </c>
@@ -18076,9 +17857,6 @@
       <c r="R87" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T87" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U87" s="4" t="str">
         <v>baponte@tasa.com.pe</v>
       </c>
@@ -18129,9 +17907,6 @@
       <c r="N88" s="4" t="str">
         <v>700425-t</v>
       </c>
-      <c r="T88" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U88" s="4" t="str">
         <v>dalopez@tasa.com.pe</v>
       </c>
@@ -18182,9 +17957,6 @@
       <c r="R89" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T89" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U89" s="4" t="str">
         <v>pecalderon@tasa.com.pe</v>
       </c>
@@ -18232,9 +18004,6 @@
       <c r="M90" s="4" t="str">
         <v>953082-t</v>
       </c>
-      <c r="T90" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U90" s="4" t="str">
         <v>rsosa@tasa.com.pe</v>
       </c>
@@ -18288,9 +18057,6 @@
       <c r="R91" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T91" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U91" s="4" t="str">
         <v>rjimenez@tasa.com.pe</v>
       </c>
@@ -18341,9 +18107,6 @@
       <c r="N92" s="4" t="str">
         <v>500008-t</v>
       </c>
-      <c r="T92" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U92" s="4" t="str">
         <v>ctorres@tasa.com.pe</v>
       </c>
@@ -18394,9 +18157,6 @@
       <c r="R93" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T93" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U93" s="4" t="str">
         <v>omontenegro@tasa.com.pe</v>
       </c>
@@ -18450,9 +18210,6 @@
       <c r="R94" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T94" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U94" s="4" t="str">
         <v>dmontes@tasa.com.pe</v>
       </c>
@@ -18506,9 +18263,6 @@
       <c r="R95" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T95" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U95" s="4" t="str">
         <v>erafael@tasa.com.pe</v>
       </c>
@@ -18559,9 +18313,6 @@
       <c r="R96" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T96" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U96" s="4" t="str">
         <v>kesquivel@tasa.com.pe</v>
       </c>
@@ -18612,9 +18363,6 @@
       <c r="N97" s="4" t="str">
         <v>250124-t</v>
       </c>
-      <c r="T97" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U97" s="4" t="str">
         <v>vvicuna@tasa.com.pe</v>
       </c>
@@ -18665,9 +18413,6 @@
       <c r="N98" s="4" t="str">
         <v>2000042-t</v>
       </c>
-      <c r="T98" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U98" s="4" t="str">
         <v>mcarrillo@tasa.com.pe</v>
       </c>
@@ -18718,9 +18463,6 @@
       <c r="N99" s="4" t="str">
         <v>2000053-t</v>
       </c>
-      <c r="T99" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U99" s="4" t="str">
         <v>flatorre@tasa.com.pe</v>
       </c>
@@ -18774,9 +18516,6 @@
       <c r="R100" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T100" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U100" s="4" t="str">
         <v>walba@tasa.com.pe</v>
       </c>
@@ -18824,9 +18563,6 @@
       <c r="M101" s="4" t="str">
         <v>1295014-t</v>
       </c>
-      <c r="T101" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U101" s="4" t="str">
         <v>jmejia@tasa.com.pe</v>
       </c>
@@ -18880,9 +18616,6 @@
       <c r="R102" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T102" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U102" s="4" t="str">
         <v>onavarro@tasa.com.pe</v>
       </c>
@@ -18936,9 +18669,6 @@
       <c r="R103" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T103" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U103" s="4" t="str">
         <v>ejimenez@tasa.com.pe</v>
       </c>
@@ -18989,9 +18719,6 @@
       <c r="N104" s="4" t="str">
         <v>1250050-t</v>
       </c>
-      <c r="T104" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U104" s="4" t="str">
         <v>edelascasas@tasa.com.pe</v>
       </c>
@@ -19045,9 +18772,6 @@
       <c r="R105" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T105" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U105" s="4" t="str">
         <v>ccarrion@tasa.com.pe</v>
       </c>
@@ -19098,9 +18822,6 @@
       <c r="N106" s="4" t="str">
         <v>1185025-t</v>
       </c>
-      <c r="T106" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U106" s="4" t="str">
         <v>druiz@tasa.com.pe</v>
       </c>
@@ -19151,9 +18872,6 @@
       <c r="N107" s="4" t="str">
         <v>1160007-t</v>
       </c>
-      <c r="T107" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U107" s="4" t="str">
         <v>jmoncada@tasa.com.pe</v>
       </c>
@@ -19204,9 +18922,6 @@
       <c r="N108" s="4" t="str">
         <v>700468-t</v>
       </c>
-      <c r="T108" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U108" s="4" t="str">
         <v>juchavez@tasa.com.pe</v>
       </c>
@@ -19257,9 +18972,6 @@
       <c r="R109" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T109" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U109" s="4" t="str">
         <v>dlopez@tasa.com.pe</v>
       </c>
@@ -19313,9 +19025,6 @@
       <c r="R110" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T110" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U110" s="4" t="str">
         <v>jrivoin@tasa.com.pe</v>
       </c>
@@ -19369,9 +19078,6 @@
       <c r="R111" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T111" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U111" s="4" t="str">
         <v>mfernandez@tasa.com.pe</v>
       </c>
@@ -19422,9 +19128,6 @@
       <c r="N112" s="4" t="str">
         <v>1290120-t</v>
       </c>
-      <c r="T112" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U112" s="4" t="str">
         <v>svasquez@tasa.com.pe</v>
       </c>
@@ -19475,9 +19178,6 @@
       <c r="N113" s="4" t="str">
         <v>1290028-t</v>
       </c>
-      <c r="T113" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U113" s="4" t="str">
         <v>wflores@tasa.com.pe</v>
       </c>
@@ -19528,9 +19228,6 @@
       <c r="N114" s="4" t="str">
         <v>650151-t</v>
       </c>
-      <c r="T114" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U114" s="4" t="str">
         <v>emurgueytio@tasa.com.pe</v>
       </c>
@@ -19581,9 +19278,6 @@
       <c r="N115" s="4" t="str">
         <v>650205-t</v>
       </c>
-      <c r="T115" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U115" s="4" t="str">
         <v>emarengo@tasa.com.pe</v>
       </c>
@@ -19634,9 +19328,6 @@
       <c r="R116" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T116" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U116" s="4" t="str">
         <v>arisco@tasa.com.pe</v>
       </c>
@@ -19687,9 +19378,6 @@
       <c r="R117" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T117" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U117" s="4" t="str">
         <v>fdiaz@tasa.com.pe</v>
       </c>
@@ -19743,9 +19431,6 @@
       <c r="R118" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T118" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U118" s="4" t="str">
         <v>duceda@tasa.com.pe</v>
       </c>
@@ -19799,9 +19484,6 @@
       <c r="R119" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T119" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U119" s="4" t="str">
         <v>mocarrillo@tasa.com.pe</v>
       </c>
@@ -19852,9 +19534,6 @@
       <c r="R120" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T120" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U120" s="4" t="str">
         <v>nguevara@tasa.com.pe</v>
       </c>
@@ -19905,9 +19584,6 @@
       <c r="N121" s="4" t="str">
         <v>500123-t</v>
       </c>
-      <c r="T121" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U121" s="4" t="str">
         <v>cperalta@tasa.com.pe</v>
       </c>
@@ -19955,9 +19631,6 @@
       <c r="M122" s="4" t="str">
         <v>550106-t</v>
       </c>
-      <c r="T122" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U122" s="4" t="str">
         <v>ebazan@tasa.com.pe</v>
       </c>
@@ -20011,9 +19684,6 @@
       <c r="R123" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T123" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U123" s="4" t="str">
         <v>faguirre@tasa.com.pe</v>
       </c>
@@ -20064,9 +19734,6 @@
       <c r="R124" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T124" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U124" s="4" t="str">
         <v>pbeltran@tasa.com.pe</v>
       </c>
@@ -20120,9 +19787,6 @@
       <c r="R125" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T125" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U125" s="4" t="str">
         <v>arios@tasa.com.pe</v>
       </c>
@@ -20176,9 +19840,6 @@
       <c r="R126" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T126" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U126" s="4" t="str">
         <v>bfernandez@tasa.com.pe</v>
       </c>
@@ -20229,9 +19890,6 @@
       <c r="R127" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T127" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U127" s="4" t="str">
         <v>jadanaque@tasa.com.pe</v>
       </c>
@@ -20282,9 +19940,6 @@
       <c r="N128" s="4" t="str">
         <v>1230110-t</v>
       </c>
-      <c r="T128" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U128" s="4" t="str">
         <v>jvaldes@tasa.com.pe</v>
       </c>
@@ -20338,9 +19993,6 @@
       <c r="R129" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T129" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U129" s="4" t="str">
         <v>shuarcaya@tasa.com.pe</v>
       </c>
@@ -20391,9 +20043,6 @@
       <c r="N130" s="4" t="str">
         <v>1210013-t</v>
       </c>
-      <c r="T130" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U130" s="4" t="str">
         <v>eylave@tasa.com.pe</v>
       </c>
@@ -20441,9 +20090,6 @@
       <c r="M131" s="4" t="str">
         <v>1235124-t</v>
       </c>
-      <c r="T131" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U131" s="4" t="str">
         <v>dguevara@tasa.com.pe</v>
       </c>
@@ -20544,9 +20190,6 @@
       <c r="R133" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T133" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U133" s="4" t="str">
         <v>etasso@tasa.com.pe</v>
       </c>
@@ -20597,9 +20240,6 @@
       <c r="N134" s="4" t="str">
         <v>500120-t</v>
       </c>
-      <c r="T134" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U134" s="4" t="str">
         <v>pavila@tasa.com.pe</v>
       </c>
@@ -20700,9 +20340,6 @@
       <c r="N136" s="4" t="str">
         <v>1230114-t</v>
       </c>
-      <c r="T136" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U136" s="4" t="str">
         <v>mmoran@tasa.com.pe</v>
       </c>
@@ -20759,9 +20396,6 @@
       <c r="R137" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T137" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U137" s="4" t="str">
         <v>jvilca@tasa.com.pe</v>
       </c>
@@ -20813,9 +20447,6 @@
       <c r="S138" s="4" t="str">
         <v>revisar género</v>
       </c>
-      <c r="T138" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U138" s="4" t="str">
         <v>jreyesp@tasa.com.pe</v>
       </c>
@@ -20869,9 +20500,6 @@
       <c r="R139" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado, la ponderación no suma 100%</v>
       </c>
-      <c r="T139" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U139" s="4" t="str">
         <v>ccotrina@tasa.com.pe</v>
       </c>
@@ -20922,9 +20550,6 @@
       <c r="R140" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T140" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U140" s="4" t="str">
         <v>mfernandez@tasa.com.pe</v>
       </c>
@@ -20966,9 +20591,6 @@
       <c r="R141" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T141" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U141" s="4" t="str">
         <v>etasso@tasa.com.pe</v>
       </c>
@@ -21010,9 +20632,6 @@
       <c r="R142" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T142" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U142" s="4" t="str">
         <v>arios@tasa.com.pe</v>
       </c>
@@ -21054,9 +20673,6 @@
       <c r="R143" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T143" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U143" s="4" t="str">
         <v>luquispe@tasa.com.pe</v>
       </c>
@@ -21101,9 +20717,6 @@
       <c r="R144" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T144" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U144" s="4" t="str">
         <v>csalinas@tasa.com.pe</v>
       </c>
@@ -21186,9 +20799,6 @@
       <c r="R146" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T146" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U146" s="4" t="str">
         <v>lbejarm@tasa.com.pe</v>
       </c>
@@ -21230,9 +20840,6 @@
       <c r="R147" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T147" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U147" s="4" t="str">
         <v>jhdelgado@tasa.com.pe</v>
       </c>
@@ -21271,9 +20878,6 @@
       <c r="J148" s="5" t="str">
         <v>m</v>
       </c>
-      <c r="T148" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U148" s="4" t="str">
         <v>carroyo@tasa.com.pe</v>
       </c>
@@ -21347,9 +20951,6 @@
       <c r="J150" s="5" t="str">
         <v>m</v>
       </c>
-      <c r="T150" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U150" s="4" t="str">
         <v>cruiz@tasa.com.pe</v>
       </c>
@@ -21388,9 +20989,6 @@
       <c r="J151" s="5" t="str">
         <v>m</v>
       </c>
-      <c r="T151" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U151" s="4" t="str">
         <v>gsuero@tasa.com.pe</v>
       </c>
@@ -21429,9 +21027,6 @@
       <c r="J152" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T152" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U152" s="4" t="str">
         <v>jcruz@tasa.com.pe</v>
       </c>
@@ -21470,9 +21065,6 @@
       <c r="J153" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T153" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U153" s="4" t="str">
         <v>parata@tasa.com.pe</v>
       </c>
@@ -21511,9 +21103,6 @@
       <c r="J154" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T154" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U154" s="4" t="str">
         <v>rramirez@tasa.com.pe</v>
       </c>
@@ -21590,9 +21179,6 @@
       <c r="J156" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T156" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U156" s="4" t="str">
         <v>fbrissolese@tasa.com.pe</v>
       </c>
@@ -21631,9 +21217,6 @@
       <c r="J157" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T157" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U157" s="4" t="str">
         <v>kbazan@tasa.com.pe</v>
       </c>
@@ -21672,9 +21255,6 @@
       <c r="J158" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T158" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U158" s="4" t="str">
         <v>gtorres@tasa.com.pe</v>
       </c>
@@ -21713,9 +21293,6 @@
       <c r="J159" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T159" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U159" s="4" t="str">
         <v>jdiaz@tasa.com.pe</v>
       </c>
@@ -21766,9 +21343,6 @@
       <c r="R160" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T160" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U160" s="4" t="str">
         <v>gseclen@tasa.com.pe</v>
       </c>
@@ -21807,9 +21381,6 @@
       <c r="J161" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T161" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U161" s="4" t="str">
         <v>cdelellis@tasa.com.pe</v>
       </c>
@@ -21848,9 +21419,6 @@
       <c r="J162" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T162" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U162" s="4" t="str">
         <v>rotoledo@tasa.com.pe</v>
       </c>
@@ -21889,9 +21457,6 @@
       <c r="J163" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T163" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U163" s="4" t="str">
         <v>ecarrillo@tasa.com.pe</v>
       </c>
@@ -21965,9 +21530,6 @@
       <c r="J165" s="5" t="str">
         <v>m</v>
       </c>
-      <c r="T165" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U165" s="4" t="str">
         <v>ggil@tasa.com.pe</v>
       </c>
@@ -22006,9 +21568,6 @@
       <c r="J166" s="5" t="str">
         <v>m</v>
       </c>
-      <c r="T166" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U166" s="4" t="str">
         <v>ovega@tasa.com.pe</v>
       </c>
@@ -22123,9 +21682,6 @@
       <c r="J169" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T169" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U169" s="4" t="str">
         <v>moperez@tasa.com.pe</v>
       </c>
@@ -22164,9 +21720,6 @@
       <c r="J170" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T170" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U170" s="4" t="str">
         <v>jvivanco@tasa.com.pe</v>
       </c>
@@ -22205,9 +21758,6 @@
       <c r="J171" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T171" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U171" s="4" t="str">
         <v>epenaranda@tasa.com.pe</v>
       </c>
@@ -22249,9 +21799,6 @@
       <c r="Q172" s="4" t="str">
         <v>101129-t</v>
       </c>
-      <c r="T172" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U172" s="4" t="str">
         <v>jgaldos@tasa.com.pe</v>
       </c>
@@ -22290,9 +21837,6 @@
       <c r="J173" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T173" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U173" s="4" t="str">
         <v>fcisneros@tasa.com.pe</v>
       </c>
@@ -22331,9 +21875,6 @@
       <c r="J174" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T174" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U174" s="4" t="str">
         <v>dforsyth@tasa.com.pe</v>
       </c>
@@ -22375,9 +21916,6 @@
       <c r="R175" s="4" t="str">
         <v>identifier duplicado, username duplicado</v>
       </c>
-      <c r="T175" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U175" s="4" t="str">
         <v>rnamihas@tasa.com.pe</v>
       </c>
@@ -22422,9 +21960,6 @@
       <c r="R176" s="4" t="str">
         <v>username duplicado</v>
       </c>
-      <c r="T176" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U176" s="4" t="str">
         <v>judcastro@tasa.com.pe</v>
       </c>
@@ -22463,9 +21998,6 @@
       <c r="J177" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T177" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U177" s="4" t="str">
         <v>tlopez@tasa.com.pe</v>
       </c>
@@ -22504,9 +22036,6 @@
       <c r="J178" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T178" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U178" s="4" t="str">
         <v>clorenzi@tasa.com.pe</v>
       </c>
@@ -22545,9 +22074,6 @@
       <c r="J179" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T179" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U179" s="4" t="str">
         <v>lsanchez@tasa.com.pe</v>
       </c>
@@ -22586,9 +22112,6 @@
       <c r="J180" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T180" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U180" s="4" t="str">
         <v>amurillo@tasa.com.pe</v>
       </c>
@@ -22668,9 +22191,6 @@
       <c r="Q182" s="4" t="str">
         <v>182737-t</v>
       </c>
-      <c r="T182" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U182" s="4" t="str">
         <v>bcabanillas@tasa.com.pe</v>
       </c>
@@ -22709,9 +22229,6 @@
       <c r="J183" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T183" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U183" s="4" t="str">
         <v>abailon@tasa.com.pe</v>
       </c>
@@ -22750,9 +22267,6 @@
       <c r="J184" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T184" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U184" s="4" t="str">
         <v>laguilar@tasa.com.pe</v>
       </c>
@@ -22791,9 +22305,6 @@
       <c r="J185" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T185" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U185" s="4" t="str">
         <v>areyes@tasa.com.pe</v>
       </c>
@@ -22832,9 +22343,6 @@
       <c r="J186" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T186" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U186" s="4" t="str">
         <v>jbustinza@tasa.com.pe</v>
       </c>
@@ -22873,9 +22381,6 @@
       <c r="J187" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T187" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U187" s="4" t="str">
         <v>ealmendras@tasa.com.pe</v>
       </c>
@@ -22952,9 +22457,6 @@
       <c r="J189" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T189" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U189" s="4" t="str">
         <v>mchavesta@tasa.com.pe</v>
       </c>
@@ -22996,9 +22498,6 @@
       <c r="R190" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T190" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U190" s="4" t="str">
         <v>jevargas@tasa.com.pe</v>
       </c>
@@ -23037,9 +22536,6 @@
       <c r="J191" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T191" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U191" s="4" t="str">
         <v>dsalazar@tasa.com.pe</v>
       </c>
@@ -23116,9 +22612,6 @@
       <c r="J193" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T193" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U193" s="4" t="str">
         <v>scarbajal@tasa.com.pe</v>
       </c>
@@ -23157,9 +22650,6 @@
       <c r="J194" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T194" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U194" s="4" t="str">
         <v>jporras@tasa.com.pe</v>
       </c>
@@ -23198,9 +22688,6 @@
       <c r="J195" s="5" t="str">
         <v>f</v>
       </c>
-      <c r="T195" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U195" s="4" t="str">
         <v>mampuero@tasa.com.pe</v>
       </c>
@@ -23239,9 +22726,6 @@
       <c r="J196" s="5" t="str">
         <v>m</v>
       </c>
-      <c r="T196" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U196" s="4" t="str">
         <v>vbustinza@tasa.com.pe</v>
       </c>
@@ -23280,9 +22764,6 @@
       <c r="J197" s="5" t="str">
         <v>f</v>
       </c>
-      <c r="T197" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U197" s="4" t="str">
         <v>ccalderon@tasa.com.pe</v>
       </c>
@@ -23321,9 +22802,6 @@
       <c r="J198" s="5" t="str">
         <v>m</v>
       </c>
-      <c r="T198" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U198" s="4" t="str">
         <v>aacero@tasa.com.pe</v>
       </c>
@@ -23362,9 +22840,6 @@
       <c r="J199" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T199" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U199" s="4" t="str">
         <v>tmedina@tasa.com.pe</v>
       </c>
@@ -23403,9 +22878,6 @@
       <c r="J200" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T200" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U200" s="4" t="str">
         <v>jocueva@tasa.com.pe</v>
       </c>
@@ -23444,9 +22916,6 @@
       <c r="J201" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T201" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U201" s="4" t="str">
         <v>rastorayme@tasa.com.pe</v>
       </c>
@@ -23523,9 +22992,6 @@
       <c r="J203" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T203" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U203" s="4" t="str">
         <v>saguilar@tasa.com.pe</v>
       </c>
@@ -23564,9 +23030,6 @@
       <c r="J204" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T204" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U204" s="4" t="str">
         <v>cegoavil@tasa.com.pe</v>
       </c>
@@ -23640,9 +23103,6 @@
       <c r="J206" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T206" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U206" s="4" t="str">
         <v>ycarrasco@tasa.com.pe</v>
       </c>
@@ -23684,9 +23144,6 @@
       <c r="R207" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T207" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U207" s="4" t="str">
         <v>jbaylon@tasa.com.pe</v>
       </c>
@@ -23725,9 +23182,6 @@
       <c r="J208" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T208" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U208" s="4" t="str">
         <v>jfernandez@tasa.com.pe</v>
       </c>
@@ -23766,9 +23220,6 @@
       <c r="J209" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T209" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U209" s="4" t="str">
         <v>lvaliente@tasa.com.pe</v>
       </c>
@@ -23807,9 +23258,6 @@
       <c r="J210" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T210" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U210" s="4" t="str">
         <v>jpoemape@tasa.com.pe</v>
       </c>
@@ -23848,9 +23296,6 @@
       <c r="J211" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T211" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U211" s="4" t="str">
         <v>lhuaranga@tasa.com.pe</v>
       </c>
@@ -23889,9 +23334,6 @@
       <c r="J212" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T212" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U212" s="4" t="str">
         <v>wminaya@tasa.com.pe</v>
       </c>
@@ -23933,9 +23375,6 @@
       <c r="R213" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T213" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U213" s="4" t="str">
         <v>lmirpuri@tasa.com.pe</v>
       </c>
@@ -23974,9 +23413,6 @@
       <c r="J214" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T214" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U214" s="4" t="str">
         <v>pchabaneix@tasa.com.pe</v>
       </c>
@@ -24015,9 +23451,6 @@
       <c r="J215" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T215" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U215" s="4" t="str">
         <v>cmaza@tasa.com.pe</v>
       </c>
@@ -24056,9 +23489,6 @@
       <c r="J216" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T216" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U216" s="4" t="str">
         <v>masalazar@tasa.com.pe</v>
       </c>
@@ -24097,9 +23527,6 @@
       <c r="J217" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T217" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U217" s="4" t="str">
         <v>ecalle@tasa.com.pe</v>
       </c>
@@ -24138,9 +23565,6 @@
       <c r="J218" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T218" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U218" s="4" t="str">
         <v>lreyes@tasa.com.pe</v>
       </c>
@@ -24179,9 +23603,6 @@
       <c r="J219" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T219" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U219" s="4" t="str">
         <v>jubustamante@tasa.com.pe</v>
       </c>
@@ -24220,9 +23641,6 @@
       <c r="J220" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T220" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U220" s="4" t="str">
         <v>gvilela@tasa.com.pe</v>
       </c>
@@ -24334,9 +23752,6 @@
       <c r="J223" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T223" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U223" s="4" t="str">
         <v>mvasquez@tasa.com.pe</v>
       </c>
@@ -24375,9 +23790,6 @@
       <c r="J224" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T224" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U224" s="4" t="str">
         <v>molazabal@tasa.com.pe</v>
       </c>
@@ -24416,9 +23828,6 @@
       <c r="J225" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T225" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U225" s="4" t="str">
         <v>lsilva@tasa.com.pe</v>
       </c>
@@ -24495,9 +23904,6 @@
       <c r="R227" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T227" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U227" s="4" t="str">
         <v>gmendoza@tasa.com.pe</v>
       </c>
@@ -24650,9 +24056,6 @@
       <c r="J231" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T231" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U231" s="4" t="str">
         <v>meflores@tasa.com.pe</v>
       </c>
@@ -24691,9 +24094,6 @@
       <c r="J232" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T232" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U232" s="4" t="str">
         <v>wsanchez@tasa.com.pe</v>
       </c>
@@ -24732,9 +24132,6 @@
       <c r="J233" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T233" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U233" s="4" t="str">
         <v>pcastillo@tasa.com.pe</v>
       </c>
@@ -24773,9 +24170,6 @@
       <c r="J234" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T234" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U234" s="4" t="str">
         <v>marodriguez@tasa.com.pe</v>
       </c>
@@ -24814,9 +24208,6 @@
       <c r="J235" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T235" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U235" s="4" t="str">
         <v>jpimentel@tasa.com.pe</v>
       </c>
@@ -24893,9 +24284,6 @@
       <c r="R237" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T237" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U237" s="4" t="str">
         <v>rjuscamaita@tasa.com.pe</v>
       </c>
@@ -24937,9 +24325,6 @@
       <c r="R238" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T238" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U238" s="4" t="str">
         <v>pmunoz@tasa.com.pe</v>
       </c>
@@ -24981,9 +24366,6 @@
       <c r="R239" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T239" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U239" s="4" t="str">
         <v>ipaz@tasa.com.pe</v>
       </c>
@@ -25025,9 +24407,6 @@
       <c r="R240" s="4" t="str">
         <v>identifier duplicado</v>
       </c>
-      <c r="T240" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U240" s="4" t="str">
         <v>core@tasa.com.pe</v>
       </c>
@@ -25069,9 +24448,6 @@
       <c r="R241" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T241" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U241" s="4" t="str">
         <v>ccotrina@tasa.com.pe</v>
       </c>
@@ -25113,9 +24489,6 @@
       <c r="R242" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T242" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U242" s="4" t="str">
         <v>lvera@tasa.com.pe</v>
       </c>
@@ -25157,9 +24530,6 @@
       <c r="R243" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T243" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U243" s="4" t="str">
         <v>hrodriguez@tasa.com.pe</v>
       </c>
@@ -25198,9 +24568,6 @@
       <c r="J244" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T244" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U244" s="4" t="str">
         <v>pbroncano@tasa.com.pe</v>
       </c>
@@ -25242,9 +24609,6 @@
       <c r="R245" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T245" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U245" s="4" t="str">
         <v>jevargas@tasa.com.pe</v>
       </c>
@@ -25283,9 +24647,6 @@
       <c r="J246" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T246" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U246" s="4" t="str">
         <v>jrecavarren@tasa.com.pe</v>
       </c>
@@ -25324,9 +24685,6 @@
       <c r="J247" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T247" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U247" s="4" t="str">
         <v>ndelapiedra@tasa.com.pe</v>
       </c>
@@ -25365,9 +24723,6 @@
       <c r="J248" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T248" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U248" s="4" t="str">
         <v>mvaldez@tasa.com.pe</v>
       </c>
@@ -25406,9 +24761,6 @@
       <c r="J249" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T249" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U249" s="4" t="str">
         <v>fvargas@tasa.com.pe</v>
       </c>
@@ -25485,9 +24837,6 @@
       <c r="J251" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T251" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U251" s="4" t="str">
         <v>apastor@tasa.com.pe</v>
       </c>
@@ -25526,9 +24875,6 @@
       <c r="J252" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T252" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U252" s="4" t="str">
         <v>vapaza@tasa.com.pe</v>
       </c>
@@ -25570,9 +24916,6 @@
       <c r="R253" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T253" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U253" s="4" t="str">
         <v>mqueque@tasa.com.pe</v>
       </c>
@@ -25614,9 +24957,6 @@
       <c r="R254" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T254" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U254" s="4" t="str">
         <v>mmatta@tasa.com.pe</v>
       </c>
@@ -25655,9 +24995,6 @@
       <c r="J255" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T255" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U255" s="4" t="str">
         <v>jfajardo@tasa.com.pe</v>
       </c>
@@ -25699,9 +25036,6 @@
       <c r="R256" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T256" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U256" s="4" t="str">
         <v>pcondor@tasa.com.pe</v>
       </c>
@@ -25740,9 +25074,6 @@
       <c r="J257" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T257" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U257" s="4" t="str">
         <v>ravellaneda@tasa.com.pe</v>
       </c>
@@ -25781,9 +25112,6 @@
       <c r="J258" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T258" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U258" s="4" t="str">
         <v>aelguera@tasa.com.pe</v>
       </c>
@@ -25822,9 +25150,6 @@
       <c r="J259" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T259" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U259" s="4" t="str">
         <v>vcantara@tasa.com.pe</v>
       </c>
@@ -25866,9 +25191,6 @@
       <c r="R260" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T260" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U260" s="4" t="str">
         <v>msotelo@tasa.com.pe</v>
       </c>
@@ -25907,9 +25229,6 @@
       <c r="J261" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T261" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U261" s="4" t="str">
         <v>amoreno@tasa.com.pe</v>
       </c>
@@ -25951,9 +25270,6 @@
       <c r="R262" s="4" t="str">
         <v>identifier duplicado, correo duplicado</v>
       </c>
-      <c r="T262" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U262" s="4" t="str">
         <v>mchumbe@tasa.com.pe</v>
       </c>
@@ -25992,9 +25308,6 @@
       <c r="J263" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T263" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U263" s="4" t="str">
         <v>flipa@tasa.com.pe</v>
       </c>
@@ -26033,9 +25346,6 @@
       <c r="J264" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T264" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U264" s="4" t="str">
         <v>gmoya@tasa.com.pe</v>
       </c>
@@ -26074,9 +25384,6 @@
       <c r="J265" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T265" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U265" s="4" t="str">
         <v>lrios@tasa.com.pe</v>
       </c>
@@ -26115,9 +25422,6 @@
       <c r="J266" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T266" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U266" s="4" t="str">
         <v>mvillafuerte@tasa.com.pe</v>
       </c>
@@ -26156,9 +25460,6 @@
       <c r="J267" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T267" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U267" s="4" t="str">
         <v>tsarmiento@tasa.com.pe</v>
       </c>
@@ -26197,9 +25498,6 @@
       <c r="J268" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T268" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U268" s="4" t="str">
         <v>cmendoza@tasa.com.pe</v>
       </c>
@@ -26238,9 +25536,6 @@
       <c r="J269" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T269" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U269" s="4" t="str">
         <v>rmiranda@tasa.com.pe</v>
       </c>
@@ -26279,9 +25574,6 @@
       <c r="J270" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T270" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U270" s="4" t="str">
         <v>hvasquez@tasa.com.pe</v>
       </c>
@@ -26320,9 +25612,6 @@
       <c r="J271" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T271" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U271" s="4" t="str">
         <v>mvelasquez@tasa.com.pe</v>
       </c>
@@ -26361,9 +25650,6 @@
       <c r="J272" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T272" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U272" s="4" t="str">
         <v>baquije@tasa.com.pe</v>
       </c>
@@ -26402,9 +25688,6 @@
       <c r="J273" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T273" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U273" s="4" t="str">
         <v>rvillacorta@tasa.com.pe</v>
       </c>
@@ -26443,9 +25726,6 @@
       <c r="J274" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T274" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U274" s="4" t="str">
         <v>jmolero@tasa.com.pe</v>
       </c>
@@ -26487,9 +25767,6 @@
       <c r="R275" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T275" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U275" s="4" t="str">
         <v>jcorbera@tasa.com.pe</v>
       </c>
@@ -26528,9 +25805,6 @@
       <c r="J276" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T276" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U276" s="4" t="str">
         <v>pmontoya@tasa.com.pe</v>
       </c>
@@ -26572,9 +25846,6 @@
       <c r="R277" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T277" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U277" s="4" t="str">
         <v>gsoto@tasa.com.pe</v>
       </c>
@@ -26689,9 +25960,6 @@
       <c r="J280" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T280" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U280" s="4" t="str">
         <v>rliscano@tasa.com.pe</v>
       </c>
@@ -26768,9 +26036,6 @@
       <c r="J282" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T282" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U282" s="4" t="str">
         <v>fespinoza@tasa.com.pe</v>
       </c>
@@ -26809,9 +26074,6 @@
       <c r="J283" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T283" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U283" s="4" t="str">
         <v>gcolacci@tasa.com.pe</v>
       </c>
@@ -26888,9 +26150,6 @@
       <c r="J285" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T285" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U285" s="4" t="str">
         <v>jmansilla@tasa.com.pe</v>
       </c>
@@ -27043,9 +26302,6 @@
       <c r="J289" s="5" t="str">
         <v>m</v>
       </c>
-      <c r="T289" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U289" s="4" t="str">
         <v>eschwartz@tasa.com.pe</v>
       </c>
@@ -27084,9 +26340,6 @@
       <c r="J290" s="5" t="str">
         <v>m</v>
       </c>
-      <c r="T290" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U290" s="4" t="str">
         <v>csanchez@tasa.com.pe</v>
       </c>
@@ -27125,9 +26378,6 @@
       <c r="J291" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T291" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U291" s="4" t="str">
         <v>dstruque@tasa.com.pe</v>
       </c>
@@ -27166,9 +26416,6 @@
       <c r="J292" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T292" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U292" s="4" t="str">
         <v>cmarruffo@tasa.com.pe</v>
       </c>
@@ -27207,9 +26454,6 @@
       <c r="J293" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T293" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U293" s="4" t="str">
         <v>votoya@tasa.com.pe</v>
       </c>
@@ -27248,9 +26492,6 @@
       <c r="J294" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T294" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U294" s="4" t="str">
         <v>jzapata@tasa.com.pe</v>
       </c>
@@ -27289,9 +26530,6 @@
       <c r="J295" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T295" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U295" s="4" t="str">
         <v>agallardo@tasa.com.pe</v>
       </c>
@@ -27406,9 +26644,6 @@
       <c r="J298" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T298" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U298" s="4" t="str">
         <v>roherrera@tasa.com.pe</v>
       </c>
@@ -27447,9 +26682,6 @@
       <c r="J299" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T299" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U299" s="4" t="str">
         <v>frueda@tasa.com.pe</v>
       </c>
@@ -27488,9 +26720,6 @@
       <c r="J300" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T300" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U300" s="4" t="str">
         <v>ocaldas@tasa.com.pe</v>
       </c>
@@ -27529,9 +26758,6 @@
       <c r="J301" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T301" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U301" s="4" t="str">
         <v>avilchez@tasa.com.pe</v>
       </c>
@@ -27605,9 +26831,6 @@
       <c r="J303" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T303" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U303" s="4" t="str">
         <v>mescobedo@tasa.com.pe</v>
       </c>
@@ -27646,9 +26869,6 @@
       <c r="J304" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T304" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U304" s="4" t="str">
         <v>gcarrera@tasa.com.pe</v>
       </c>
@@ -27687,9 +26907,6 @@
       <c r="J305" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T305" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U305" s="4" t="str">
         <v>amasias@tasa.com.pe</v>
       </c>
@@ -27728,9 +26945,6 @@
       <c r="J306" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T306" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U306" s="4" t="str">
         <v>mvilca@tasa.com.pe</v>
       </c>
@@ -27769,9 +26983,6 @@
       <c r="J307" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T307" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U307" s="4" t="str">
         <v>jponce@tasa.com.pe</v>
       </c>
@@ -27813,9 +27024,6 @@
       <c r="R308" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T308" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U308" s="4" t="str">
         <v>jvilca@tasa.com.pe</v>
       </c>
@@ -27857,9 +27065,6 @@
       <c r="R309" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T309" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U309" s="4" t="str">
         <v>dmontes@tasa.com.pe</v>
       </c>
@@ -27901,9 +27106,6 @@
       <c r="R310" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T310" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U310" s="4" t="str">
         <v>jrivoin@tasa.com.pe</v>
       </c>
@@ -27942,9 +27144,6 @@
       <c r="J311" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T311" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U311" s="4" t="str">
         <v>ereyes@tasa.com.pe</v>
       </c>
@@ -27986,9 +27185,6 @@
       <c r="R312" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T312" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U312" s="4" t="str">
         <v>bperezpalma@tasa.com.pe</v>
       </c>
@@ -28027,9 +27223,6 @@
       <c r="J313" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T313" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U313" s="4" t="str">
         <v>jpalomino@tasa.com.pe</v>
       </c>
@@ -28106,9 +27299,6 @@
       <c r="J315" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T315" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U315" s="4" t="str">
         <v>dpajuelo@tasa.com.pe</v>
       </c>
@@ -28147,9 +27337,6 @@
       <c r="J316" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T316" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U316" s="4" t="str">
         <v>lramirez@tasa.com.pe</v>
       </c>
@@ -28188,9 +27375,6 @@
       <c r="J317" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T317" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U317" s="4" t="str">
         <v>rachulla@tasa.com.pe</v>
       </c>
@@ -28229,9 +27413,6 @@
       <c r="J318" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T318" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U318" s="4" t="str">
         <v>ftrujillo@tasa.com.pe</v>
       </c>
@@ -28270,9 +27451,6 @@
       <c r="J319" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T319" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U319" s="4" t="str">
         <v>tjuscamaita@tasa.com.pe</v>
       </c>
@@ -28311,9 +27489,6 @@
       <c r="J320" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T320" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U320" s="4" t="str">
         <v>motoya@tasa.com.pe</v>
       </c>
@@ -28352,9 +27527,6 @@
       <c r="J321" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T321" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U321" s="4" t="str">
         <v>fsegura@tasa.com.pe</v>
       </c>
@@ -28396,9 +27568,6 @@
       <c r="R322" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T322" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U322" s="4" t="str">
         <v>yormeno@tasa.com.pe</v>
       </c>
@@ -28437,9 +27606,6 @@
       <c r="J323" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T323" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U323" s="4" t="str">
         <v>cvargas@tasa.com.pe</v>
       </c>
@@ -28481,9 +27647,6 @@
       <c r="R324" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T324" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U324" s="4" t="str">
         <v>shuarcaya@tasa.com.pe</v>
       </c>
@@ -28604,9 +27767,6 @@
       <c r="J327" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T327" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U327" s="4" t="str">
         <v>eramirez@tasa.com.pe</v>
       </c>
@@ -28645,9 +27805,6 @@
       <c r="J328" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T328" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U328" s="4" t="str">
         <v>mrodriguez@tasa.com.pe</v>
       </c>
@@ -28853,9 +28010,6 @@
       <c r="R333" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T333" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U333" s="4" t="str">
         <v>sarteaga@tasa.com.pe</v>
       </c>
@@ -28897,9 +28051,6 @@
       <c r="R334" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T334" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U334" s="4" t="str">
         <v>faguirre@tasa.com.pe</v>
       </c>
@@ -28938,9 +28089,6 @@
       <c r="J335" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T335" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U335" s="4" t="str">
         <v>ihernandez@tasa.com.pe</v>
       </c>
@@ -28982,9 +28130,6 @@
       <c r="R336" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T336" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U336" s="4" t="str">
         <v>nrosales@tasa.com.pe</v>
       </c>
@@ -29023,9 +28168,6 @@
       <c r="J337" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T337" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U337" s="4" t="str">
         <v>jbustamante@tasa.com.pe</v>
       </c>
@@ -29099,9 +28241,6 @@
       <c r="J339" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T339" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U339" s="4" t="str">
         <v>finga@tasa.com.pe</v>
       </c>
@@ -29140,9 +28279,6 @@
       <c r="J340" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T340" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U340" s="4" t="str">
         <v>zfigueroa@tasa.com.pe</v>
       </c>
@@ -29181,9 +28317,6 @@
       <c r="J341" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T341" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U341" s="4" t="str">
         <v>ymejia@tasa.com.pe</v>
       </c>
@@ -29222,9 +28355,6 @@
       <c r="J342" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T342" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U342" s="4" t="str">
         <v>samoreno@tasa.com.pe</v>
       </c>
@@ -29266,9 +28396,6 @@
       <c r="R343" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T343" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U343" s="4" t="str">
         <v>mtengan@tasa.com.pe</v>
       </c>
@@ -29307,9 +28434,6 @@
       <c r="J344" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T344" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U344" s="4" t="str">
         <v>emaldonado@tasa.com.pe</v>
       </c>
@@ -29351,9 +28475,6 @@
       <c r="R345" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T345" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U345" s="4" t="str">
         <v>gseclen@tasa.com.pe</v>
       </c>
@@ -29395,9 +28516,6 @@
       <c r="R346" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T346" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U346" s="4" t="str">
         <v>gcaceres@tasa.com.pe</v>
       </c>
@@ -29436,9 +28554,6 @@
       <c r="J347" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T347" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U347" s="4" t="str">
         <v>mespinoza@tasa.com.pe</v>
       </c>
@@ -29477,9 +28592,6 @@
       <c r="J348" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T348" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U348" s="4" t="str">
         <v>aorrillo@tasa.com.pe</v>
       </c>
@@ -29521,9 +28633,6 @@
       <c r="R349" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T349" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U349" s="4" t="str">
         <v>rorozco@tasa.com.pe</v>
       </c>
@@ -29606,9 +28715,6 @@
       <c r="R351" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T351" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U351" s="4" t="str">
         <v>ebuenano@tasa.com.pe</v>
       </c>
@@ -29650,9 +28756,6 @@
       <c r="R352" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T352" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U352" s="4" t="str">
         <v>dzegarraballon@tasa.com.pe</v>
       </c>
@@ -29770,9 +28873,6 @@
       <c r="J355" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T355" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U355" s="4" t="str">
         <v>mordonez@tasa.com.pe</v>
       </c>
@@ -29852,9 +28952,6 @@
       <c r="R357" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T357" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U357" s="4" t="str">
         <v>jverde@tasa.com.pe</v>
       </c>
@@ -29893,9 +28990,6 @@
       <c r="J358" s="5" t="str">
         <v>m</v>
       </c>
-      <c r="T358" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U358" s="4" t="str">
         <v>mchuman@tasa.com.pe</v>
       </c>
@@ -29972,9 +29066,6 @@
       <c r="J360" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T360" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U360" s="4" t="str">
         <v>ffranco@tasa.com.pe</v>
       </c>
@@ -30013,9 +29104,6 @@
       <c r="J361" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T361" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U361" s="4" t="str">
         <v>yurbano@tasa.com.pe</v>
       </c>
@@ -30054,9 +29142,6 @@
       <c r="J362" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T362" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U362" s="4" t="str">
         <v>ltello@tasa.com.pe</v>
       </c>
@@ -30095,9 +29180,6 @@
       <c r="J363" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T363" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U363" s="4" t="str">
         <v>emoscosso@tasa.com.pe</v>
       </c>
@@ -30136,9 +29218,6 @@
       <c r="J364" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T364" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U364" s="4" t="str">
         <v>aquintos@tasa.com.pe</v>
       </c>
@@ -30177,9 +29256,6 @@
       <c r="J365" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T365" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U365" s="4" t="str">
         <v>purbano@tasa.com.pe</v>
       </c>
@@ -30218,9 +29294,6 @@
       <c r="J366" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T366" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U366" s="4" t="str">
         <v>bescobar@tasa.com.pe</v>
       </c>
@@ -30262,9 +29335,6 @@
       <c r="R367" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T367" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U367" s="4" t="str">
         <v>ocamacho@tasa.com.pe</v>
       </c>
@@ -30467,9 +29537,6 @@
       <c r="J372" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T372" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U372" s="4" t="str">
         <v>ogonzales@tasa.com.pe</v>
       </c>
@@ -30511,9 +29578,6 @@
       <c r="R373" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T373" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U373" s="4" t="str">
         <v>wcaruajulca@tasa.com.pe</v>
       </c>
@@ -30552,9 +29616,6 @@
       <c r="J374" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T374" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U374" s="4" t="str">
         <v>jplaza@tasa.com.pe</v>
       </c>
@@ -30593,9 +29654,6 @@
       <c r="J375" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T375" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U375" s="4" t="str">
         <v>mverastegui@tasa.com.pe</v>
       </c>
@@ -30637,9 +29695,6 @@
       <c r="R376" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T376" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U376" s="4" t="str">
         <v>pcolonna@tasa.com.pe</v>
       </c>
@@ -30795,9 +29850,6 @@
       <c r="J380" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T380" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U380" s="4" t="str">
         <v>rmaguina@tasa.com.pe</v>
       </c>
@@ -30836,9 +29888,6 @@
       <c r="J381" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T381" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U381" s="4" t="str">
         <v>jaguilar@tasa.com.pe</v>
       </c>
@@ -30877,9 +29926,6 @@
       <c r="J382" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T382" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U382" s="4" t="str">
         <v>mleon@tasa.com.pe</v>
       </c>
@@ -30918,9 +29964,6 @@
       <c r="J383" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T383" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U383" s="4" t="str">
         <v>yamorales@tasa.com.pe</v>
       </c>
@@ -30962,9 +30005,6 @@
       <c r="R384" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T384" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U384" s="4" t="str">
         <v>erafael@tasa.com.pe</v>
       </c>
@@ -31006,9 +30046,6 @@
       <c r="R385" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T385" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U385" s="4" t="str">
         <v>frvargas@tasa.com.pe</v>
       </c>
@@ -31126,9 +30163,6 @@
       <c r="J388" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T388" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U388" s="4" t="str">
         <v>epalma15716444@hotmail.com</v>
       </c>
@@ -31252,9 +30286,6 @@
       <c r="R391" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T391" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U391" s="4" t="str">
         <v>zvasquez@tasa.com.pe</v>
       </c>
@@ -31293,9 +30324,6 @@
       <c r="J392" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T392" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U392" s="4" t="str">
         <v>ddavila@tasa.com.pe</v>
       </c>
@@ -31331,9 +30359,6 @@
       <c r="J393" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T393" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U393" s="4" t="str">
         <v>clazarte@tasa.com.pe</v>
       </c>
@@ -31372,9 +30397,6 @@
       <c r="J394" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T394" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U394" s="4" t="str">
         <v>jsuclupe16741313@hotmail.com</v>
       </c>
@@ -31413,9 +30435,6 @@
       <c r="J395" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T395" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U395" s="4" t="str">
         <v>jmartinez42211389@hotmail.com</v>
       </c>
@@ -31495,9 +30514,6 @@
       <c r="J397" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T397" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U397" s="4" t="str">
         <v>jbermudez46331951@hotmail.com</v>
       </c>
@@ -31536,9 +30552,6 @@
       <c r="J398" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T398" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U398" s="4" t="str">
         <v>etorres15712460@hotmail.com</v>
       </c>
@@ -31618,9 +30631,6 @@
       <c r="J400" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T400" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U400" s="4" t="str">
         <v>jangulo22284155@hotmail.com</v>
       </c>
@@ -31659,9 +30669,6 @@
       <c r="J401" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T401" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U401" s="4" t="str">
         <v>lapaescalantedonato@gmail.com</v>
       </c>
@@ -31700,9 +30707,6 @@
       <c r="J402" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T402" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U402" s="4" t="str">
         <v>pduran41449355@hotmail.com</v>
       </c>
@@ -31741,9 +30745,6 @@
       <c r="J403" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T403" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U403" s="4" t="str">
         <v>vjcalero@hotmail.com</v>
       </c>
@@ -31782,9 +30783,6 @@
       <c r="J404" s="5" t="str">
         <v>m</v>
       </c>
-      <c r="T404" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U404" s="4" t="str">
         <v>mtenorio@tasa.com.pe</v>
       </c>
@@ -31823,9 +30821,6 @@
       <c r="J405" s="5" t="str">
         <v>m</v>
       </c>
-      <c r="T405" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U405" s="4" t="str">
         <v>vsotelo@tasa.com.pe</v>
       </c>
@@ -31864,9 +30859,6 @@
       <c r="J406" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T406" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U406" s="4" t="str">
         <v>projas@tasa.com.pe</v>
       </c>
@@ -31908,9 +30900,6 @@
       <c r="R407" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T407" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U407" s="4" t="str">
         <v>ysandoval@tasa.com.pe</v>
       </c>
@@ -31949,9 +30938,6 @@
       <c r="J408" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T408" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U408" s="4" t="str">
         <v>gpro@tasa.com.pe</v>
       </c>
@@ -31990,9 +30976,6 @@
       <c r="J409" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T409" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U409" s="4" t="str">
         <v>ccostilla@tasa.com.pe</v>
       </c>
@@ -32031,9 +31014,6 @@
       <c r="J410" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T410" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U410" s="4" t="str">
         <v>jchapilliquen@tasa.com.pe</v>
       </c>
@@ -32075,9 +31055,6 @@
       <c r="R411" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T411" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U411" s="4" t="str">
         <v>scorcuera@tasa.com.pe</v>
       </c>
@@ -32116,9 +31093,6 @@
       <c r="J412" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T412" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U412" s="4" t="str">
         <v>ddelgado@tasa.com.pe</v>
       </c>
@@ -32157,9 +31131,6 @@
       <c r="J413" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T413" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U413" s="4" t="str">
         <v>mguevara@tasa.com.pe</v>
       </c>
@@ -32198,9 +31169,6 @@
       <c r="J414" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T414" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U414" s="4" t="str">
         <v>halarcon@tasa.com.pe</v>
       </c>
@@ -32239,9 +31207,6 @@
       <c r="J415" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T415" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U415" s="4" t="str">
         <v>juramirez@tasa.com.pe</v>
       </c>
@@ -32283,9 +31248,6 @@
       <c r="R416" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T416" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U416" s="4" t="str">
         <v>paliaga@tasa.com.pe</v>
       </c>
@@ -32324,9 +31286,6 @@
       <c r="J417" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T417" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U417" s="4" t="str">
         <v>fluna@tasa.com.pe</v>
       </c>
@@ -32403,9 +31362,6 @@
       <c r="J419" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T419" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U419" s="4" t="str">
         <v>ralvarez@tasa.com.pe</v>
       </c>
@@ -32444,9 +31400,6 @@
       <c r="J420" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T420" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U420" s="4" t="str">
         <v>scordero@tasa.com.pe</v>
       </c>
@@ -32485,9 +31438,6 @@
       <c r="J421" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T421" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U421" s="4" t="str">
         <v>eprincipe@tasa.com.pe</v>
       </c>
@@ -32526,9 +31476,6 @@
       <c r="J422" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T422" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U422" s="4" t="str">
         <v>cochoa@tasa.com.pe</v>
       </c>
@@ -32567,9 +31514,6 @@
       <c r="J423" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T423" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U423" s="4" t="str">
         <v>gtirado@tasa.com.pe</v>
       </c>
@@ -32608,9 +31552,6 @@
       <c r="J424" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T424" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U424" s="4" t="str">
         <v>ncollazos@tasa.com.pe</v>
       </c>
@@ -32649,9 +31590,6 @@
       <c r="J425" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T425" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U425" s="4" t="str">
         <v>jmelendez@tasa.com.pe</v>
       </c>
@@ -32690,9 +31628,6 @@
       <c r="J426" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T426" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U426" s="4" t="str">
         <v>jpaz@tasa.com.pe</v>
       </c>
@@ -32731,9 +31666,6 @@
       <c r="J427" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T427" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U427" s="4" t="str">
         <v>ggiudice@tasa.com.pe</v>
       </c>
@@ -32775,9 +31707,6 @@
       <c r="R428" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T428" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U428" s="4" t="str">
         <v>mgomez@tasa.com.pe</v>
       </c>
@@ -32816,9 +31745,6 @@
       <c r="J429" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T429" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U429" s="4" t="str">
         <v>aiparraguirre@tasa.com.pe</v>
       </c>
@@ -32857,9 +31783,6 @@
       <c r="J430" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T430" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U430" s="4" t="str">
         <v>epurizaca@tasa.com.pe</v>
       </c>
@@ -32898,9 +31821,6 @@
       <c r="J431" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T431" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U431" s="4" t="str">
         <v>jduenas@tasa.com.pe</v>
       </c>
@@ -32939,9 +31859,6 @@
       <c r="J432" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T432" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U432" s="4" t="str">
         <v>jolazo@tasa.com.pe</v>
       </c>
@@ -32980,9 +31897,6 @@
       <c r="J433" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T433" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U433" s="4" t="str">
         <v>nmayo@tasa.com.pe</v>
       </c>
@@ -33021,9 +31935,6 @@
       <c r="J434" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T434" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U434" s="4" t="str">
         <v>ccama@tasa.com.pe</v>
       </c>
@@ -33062,9 +31973,6 @@
       <c r="J435" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T435" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U435" s="4" t="str">
         <v>joguzman@tasa.com.pe</v>
       </c>
@@ -33103,9 +32011,6 @@
       <c r="J436" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T436" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U436" s="4" t="str">
         <v>sespinoza@tasa.com.pe</v>
       </c>
@@ -33144,9 +32049,6 @@
       <c r="J437" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T437" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U437" s="4" t="str">
         <v>jarias@tasa.com.pe</v>
       </c>
@@ -33185,9 +32087,6 @@
       <c r="J438" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T438" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U438" s="4" t="str">
         <v>abohorquez@tasa.com.pe</v>
       </c>
@@ -33264,9 +32163,6 @@
       <c r="J440" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T440" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U440" s="4" t="str">
         <v>gpasco@tasa.com.pe</v>
       </c>
@@ -33308,9 +32204,6 @@
       <c r="R441" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T441" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U441" s="4" t="str">
         <v>mgomez@tasa.com.pe</v>
       </c>
@@ -33349,9 +32242,6 @@
       <c r="J442" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T442" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U442" s="4" t="str">
         <v>jmeza@tasa.com.pe</v>
       </c>
@@ -33390,9 +32280,6 @@
       <c r="J443" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T443" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U443" s="4" t="str">
         <v>ealmeyda@tasa.com.pe</v>
       </c>
@@ -33431,9 +32318,6 @@
       <c r="J444" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T444" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U444" s="4" t="str">
         <v>lruthnick@tasa.com.pe</v>
       </c>
@@ -33472,9 +32356,6 @@
       <c r="J445" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T445" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U445" s="4" t="str">
         <v>jnorabuena@tasa.com.pe</v>
       </c>
@@ -33513,9 +32394,6 @@
       <c r="J446" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T446" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U446" s="4" t="str">
         <v>jaulla@tasa.com.pe</v>
       </c>
@@ -33554,9 +32432,6 @@
       <c r="J447" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T447" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U447" s="4" t="str">
         <v>jaflores@tasa.com.pe</v>
       </c>
@@ -33595,9 +32470,6 @@
       <c r="J448" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T448" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U448" s="4" t="str">
         <v>jhuaman@tasa.com.pe</v>
       </c>
@@ -33636,9 +32508,6 @@
       <c r="J449" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T449" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U449" s="4" t="str">
         <v>cgozar@tasa.com.pe</v>
       </c>
@@ -33677,9 +32546,6 @@
       <c r="J450" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T450" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U450" s="4" t="str">
         <v>jpizarro@tasa.com.pe</v>
       </c>
@@ -33721,9 +32587,6 @@
       <c r="R451" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T451" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U451" s="4" t="str">
         <v>rjimenez@tasa.com.pe</v>
       </c>
@@ -33762,9 +32625,6 @@
       <c r="J452" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T452" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U452" s="4" t="str">
         <v>jorios@tasa.com.pe</v>
       </c>
@@ -33841,9 +32701,6 @@
       <c r="J454" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T454" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U454" s="4" t="str">
         <v>wbelgrano@tasa.com.pe</v>
       </c>
@@ -33882,9 +32739,6 @@
       <c r="J455" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T455" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U455" s="4" t="str">
         <v>jmolina10115265@hotmail.com</v>
       </c>
@@ -33923,9 +32777,6 @@
       <c r="J456" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T456" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U456" s="4" t="str">
         <v>marcosalmeydab@hotmail.com</v>
       </c>
@@ -34005,9 +32856,6 @@
       <c r="J458" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T458" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U458" s="4" t="str">
         <v>dnavas33766276@hotmail.com</v>
       </c>
@@ -34049,9 +32897,6 @@
       <c r="R459" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T459" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U459" s="4" t="str">
         <v>omontenegro@tasa.com.pe</v>
       </c>
@@ -34169,9 +33014,6 @@
       <c r="R462" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T462" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U462" s="4" t="str">
         <v>pecalderon@tasa.com.pe</v>
       </c>
@@ -34210,9 +33052,6 @@
       <c r="J463" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T463" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U463" s="4" t="str">
         <v>jmorales@tasa.com.pe</v>
       </c>
@@ -34289,9 +33128,6 @@
       <c r="J465" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T465" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U465" s="4" t="str">
         <v>apalma15718415@hotmail.com</v>
       </c>
@@ -34330,9 +33166,6 @@
       <c r="J466" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T466" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U466" s="4" t="str">
         <v>jquichiz15718481@hotmail.com</v>
       </c>
@@ -34371,9 +33204,6 @@
       <c r="J467" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T467" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U467" s="4" t="str">
         <v>nmedina40204177@hotmail.com</v>
       </c>
@@ -34412,9 +33242,6 @@
       <c r="J468" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T468" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U468" s="4" t="str">
         <v>omanrique@tasa.com.pe</v>
       </c>
@@ -34453,9 +33280,6 @@
       <c r="J469" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T469" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U469" s="4" t="str">
         <v>srivera@tasa.com.pe</v>
       </c>
@@ -34494,9 +33318,6 @@
       <c r="J470" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T470" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U470" s="4" t="str">
         <v>mgalindo@tasa.com.pe</v>
       </c>
@@ -34576,9 +33397,6 @@
       <c r="R472" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T472" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U472" s="4" t="str">
         <v>ychunga@tasa.com.pe</v>
       </c>
@@ -34655,9 +33473,6 @@
       <c r="J474" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T474" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U474" s="4" t="str">
         <v>maromero@tasa.com.pe</v>
       </c>
@@ -34696,9 +33511,6 @@
       <c r="J475" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T475" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U475" s="4" t="str">
         <v>vfarromeque@tasa.com.pe</v>
       </c>
@@ -34816,9 +33628,6 @@
       <c r="J478" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T478" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U478" s="4" t="str">
         <v>rcorrea@tasa.com.pe</v>
       </c>
@@ -34857,9 +33666,6 @@
       <c r="J479" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T479" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U479" s="4" t="str">
         <v>mllangato@tasa.com.pe</v>
       </c>
@@ -34898,9 +33704,6 @@
       <c r="J480" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T480" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U480" s="4" t="str">
         <v>fberru@tasa.com.pe</v>
       </c>
@@ -34942,9 +33745,6 @@
       <c r="R481" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T481" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U481" s="4" t="str">
         <v>walba@tasa.com.pe</v>
       </c>
@@ -35021,9 +33821,6 @@
       <c r="J483" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T483" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U483" s="4" t="str">
         <v>lmontoya@tasa.com.pe</v>
       </c>
@@ -35100,9 +33897,6 @@
       <c r="J485" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T485" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U485" s="4" t="str">
         <v>cplasencia@tasa.com.pe</v>
       </c>
@@ -35141,9 +33935,6 @@
       <c r="J486" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T486" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U486" s="4" t="str">
         <v>shuaranca@tasa.com.pe</v>
       </c>
@@ -35258,9 +34049,6 @@
       <c r="J489" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T489" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U489" s="4" t="str">
         <v>aorozco@tasa.com.pe</v>
       </c>
@@ -35299,9 +34087,6 @@
       <c r="J490" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T490" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U490" s="4" t="str">
         <v>fernando_titojara@hotmail.com</v>
       </c>
@@ -35340,9 +34125,6 @@
       <c r="J491" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T491" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U491" s="4" t="str">
         <v>efrain_176@hotmail.com</v>
       </c>
@@ -35381,9 +34163,6 @@
       <c r="J492" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T492" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U492" s="4" t="str">
         <v>hinojosa.arias.e@gmail.com</v>
       </c>
@@ -35422,9 +34201,6 @@
       <c r="J493" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T493" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U493" s="4" t="str">
         <v>jcisneros@tasa.com.pe</v>
       </c>
@@ -35463,9 +34239,6 @@
       <c r="J494" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T494" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U494" s="4" t="str">
         <v>diego_666_54@hotmail.com</v>
       </c>
@@ -35542,9 +34315,6 @@
       <c r="J496" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T496" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U496" s="4" t="str">
         <v>lmontenegro@tasa.com.pe</v>
       </c>
@@ -35583,9 +34353,6 @@
       <c r="J497" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T497" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U497" s="4" t="str">
         <v>chuayhua@tasa.com.pe</v>
       </c>
@@ -35624,9 +34391,6 @@
       <c r="J498" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T498" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U498" s="4" t="str">
         <v>hcuellar@tasa.com.pe</v>
       </c>
@@ -35665,9 +34429,6 @@
       <c r="J499" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T499" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U499" s="4" t="str">
         <v>viparedes@tasa.com.pe</v>
       </c>
@@ -35706,9 +34467,6 @@
       <c r="J500" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T500" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U500" s="4" t="str">
         <v>achavez@tasa.com.pe</v>
       </c>
@@ -35747,9 +34505,6 @@
       <c r="J501" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T501" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U501" s="4" t="str">
         <v>cbarrantes@tasa.com.pe</v>
       </c>
@@ -35791,9 +34546,6 @@
       <c r="R502" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T502" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U502" s="4" t="str">
         <v>onavarro@tasa.com.pe</v>
       </c>
@@ -35835,9 +34587,6 @@
       <c r="R503" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T503" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U503" s="4" t="str">
         <v>ccarrion@tasa.com.pe</v>
       </c>
@@ -35879,9 +34628,6 @@
       <c r="R504" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T504" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U504" s="4" t="str">
         <v>ejimenez@tasa.com.pe</v>
       </c>
@@ -35920,9 +34666,6 @@
       <c r="J505" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T505" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U505" s="4" t="str">
         <v>rhuaman@tasa.com.pe</v>
       </c>
@@ -35961,9 +34704,6 @@
       <c r="J506" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T506" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U506" s="4" t="str">
         <v>esaenz@tasa.com.pe</v>
       </c>
@@ -36002,9 +34742,6 @@
       <c r="J507" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T507" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U507" s="4" t="str">
         <v>mmedrano@tasa.com.pe</v>
       </c>
@@ -36043,9 +34780,6 @@
       <c r="J508" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T508" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U508" s="4" t="str">
         <v>marojas@tasa.com.pe</v>
       </c>
@@ -36084,9 +34818,6 @@
       <c r="J509" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T509" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U509" s="4" t="str">
         <v>jcherres32775229@hotmail.com</v>
       </c>
@@ -36125,9 +34856,6 @@
       <c r="J510" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T510" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U510" s="4" t="str">
         <v>pcontreras32802773@hotmail.com</v>
       </c>
@@ -36166,9 +34894,6 @@
       <c r="J511" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T511" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U511" s="4" t="str">
         <v>jcabanillas@tasa.com.pe</v>
       </c>
@@ -36210,9 +34935,6 @@
       <c r="R512" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T512" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U512" s="4" t="str">
         <v>dlopez@tasa.com.pe</v>
       </c>
@@ -36251,9 +34973,6 @@
       <c r="J513" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T513" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U513" s="4" t="str">
         <v>dluna@tasa.com.pe</v>
       </c>
@@ -36292,9 +35011,6 @@
       <c r="J514" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T514" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U514" s="4" t="str">
         <v>jogarcia@tasa.com.pe</v>
       </c>
@@ -36333,9 +35049,6 @@
       <c r="J515" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T515" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U515" s="4" t="str">
         <v>jdamacen@tasa.com.pe</v>
       </c>
@@ -36374,9 +35087,6 @@
       <c r="J516" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T516" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U516" s="4" t="str">
         <v>azuniga@tasa.com.pe</v>
       </c>
@@ -36415,9 +35125,6 @@
       <c r="J517" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T517" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U517" s="4" t="str">
         <v>ncenizario@tasa.com.pe</v>
       </c>
@@ -36456,9 +35163,6 @@
       <c r="J518" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T518" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U518" s="4" t="str">
         <v>perdiaz@tasa.com.pe</v>
       </c>
@@ -36497,9 +35201,6 @@
       <c r="J519" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T519" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U519" s="4" t="str">
         <v>spolo@tasa.com.pe</v>
       </c>
@@ -36538,9 +35239,6 @@
       <c r="J520" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T520" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U520" s="4" t="str">
         <v>pheredia@tasa.com.pe</v>
       </c>
@@ -36579,9 +35277,6 @@
       <c r="J521" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T521" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U521" s="4" t="str">
         <v>nmoloche@tasa.com.pe</v>
       </c>
@@ -36620,9 +35315,6 @@
       <c r="J522" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T522" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U522" s="4" t="str">
         <v>ocoral@tasa.com.pe</v>
       </c>
@@ -36661,9 +35353,6 @@
       <c r="J523" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T523" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U523" s="4" t="str">
         <v>jramirez41590291@hotmail.com</v>
       </c>
@@ -36702,9 +35391,6 @@
       <c r="J524" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T524" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U524" s="4" t="str">
         <v>vortega45215262@hotmail.com</v>
       </c>
@@ -36743,9 +35429,6 @@
       <c r="J525" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T525" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U525" s="4" t="str">
         <v>mllanca42788037@hotmail.com</v>
       </c>
@@ -36822,9 +35505,6 @@
       <c r="J527" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T527" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U527" s="4" t="str">
         <v>peche@tasa.com.pe</v>
       </c>
@@ -36863,9 +35543,6 @@
       <c r="J528" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T528" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U528" s="4" t="str">
         <v>gmantilla@tasa.com.pe</v>
       </c>
@@ -36904,9 +35581,6 @@
       <c r="J529" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T529" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U529" s="4" t="str">
         <v>rlucho@tasa.com.pe</v>
       </c>
@@ -36945,9 +35619,6 @@
       <c r="J530" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T530" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U530" s="4" t="str">
         <v>tzenas@tasa.com.pe</v>
       </c>
@@ -36986,9 +35657,6 @@
       <c r="J531" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T531" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U531" s="4" t="str">
         <v>xtorres@tasa.com.pe</v>
       </c>
@@ -37027,9 +35695,6 @@
       <c r="J532" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T532" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U532" s="4" t="str">
         <v>lauquipuma@tasa.com.pe</v>
       </c>
@@ -37068,9 +35733,6 @@
       <c r="J533" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T533" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U533" s="4" t="str">
         <v>rtisnado@tasa.com.pe</v>
       </c>
@@ -37109,9 +35771,6 @@
       <c r="J534" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T534" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U534" s="4" t="str">
         <v>abeteta@tasa.com.pe</v>
       </c>
@@ -37150,9 +35809,6 @@
       <c r="J535" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T535" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U535" s="4" t="str">
         <v>ebohorquez@tasa.com.pe</v>
       </c>
@@ -37314,9 +35970,6 @@
       <c r="R539" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T539" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U539" s="4" t="str">
         <v>arisco@tasa.com.pe</v>
       </c>
@@ -37355,9 +36008,6 @@
       <c r="J540" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T540" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U540" s="4" t="str">
         <v>nchancafe@tasa.com.pe</v>
       </c>
@@ -37396,9 +36046,6 @@
       <c r="J541" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T541" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U541" s="4" t="str">
         <v>erobles@tasa.com.pe</v>
       </c>
@@ -37437,9 +36084,6 @@
       <c r="J542" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T542" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U542" s="4" t="str">
         <v>rcastillo@tasa.com.pe</v>
       </c>
@@ -37481,9 +36125,6 @@
       <c r="R543" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T543" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U543" s="4" t="str">
         <v>jramos@tasa.com.pe</v>
       </c>
@@ -37522,9 +36163,6 @@
       <c r="J544" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T544" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U544" s="4" t="str">
         <v>mlezama@tasa.com.pe</v>
       </c>
@@ -37566,9 +36204,6 @@
       <c r="R545" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T545" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U545" s="4" t="str">
         <v>duceda@tasa.com.pe</v>
       </c>
@@ -37610,9 +36245,6 @@
       <c r="R546" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T546" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U546" s="4" t="str">
         <v>mocarrillo@tasa.com.pe</v>
       </c>
@@ -37651,9 +36283,6 @@
       <c r="J547" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T547" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U547" s="4" t="str">
         <v>lgarcia@tasa.com.pe</v>
       </c>
@@ -37692,9 +36321,6 @@
       <c r="J548" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T548" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U548" s="4" t="str">
         <v>gbracamonte@tasa.com.pe</v>
       </c>
@@ -37733,9 +36359,6 @@
       <c r="J549" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T549" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U549" s="4" t="str">
         <v>rtullume@tasa.com.pe</v>
       </c>
@@ -37774,9 +36397,6 @@
       <c r="J550" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T550" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U550" s="4" t="str">
         <v>mharo@tasa.com.pe</v>
       </c>
@@ -37815,9 +36435,6 @@
       <c r="J551" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T551" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U551" s="4" t="str">
         <v>cortega@tasa.com.pe</v>
       </c>
@@ -37856,9 +36473,6 @@
       <c r="J552" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T552" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U552" s="4" t="str">
         <v>kortiz@tasa.com.pe</v>
       </c>
@@ -37897,9 +36511,6 @@
       <c r="J553" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T553" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U553" s="4" t="str">
         <v>jlitano@tasa.com.pe</v>
       </c>
@@ -37939,7 +36550,7 @@
         <v>m</v>
       </c>
       <c r="T554" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
+        <v>otro correo en Rankmi</v>
       </c>
       <c r="U554" s="4" t="str">
         <v>hugo1386@hotmail.com</v>
@@ -37979,9 +36590,6 @@
       <c r="J555" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T555" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U555" s="4" t="str">
         <v>jvalentin@tasa.com.pe</v>
       </c>
@@ -38020,9 +36628,6 @@
       <c r="J556" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T556" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U556" s="4" t="str">
         <v>jortiz@tasa.com.pe</v>
       </c>
@@ -38064,9 +36669,6 @@
       <c r="R557" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T557" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U557" s="4" t="str">
         <v>nguevara@tasa.com.pe</v>
       </c>
@@ -38105,9 +36707,6 @@
       <c r="J558" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T558" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U558" s="4" t="str">
         <v>jlector32951957@hotmail.com</v>
       </c>
@@ -38146,9 +36745,6 @@
       <c r="J559" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T559" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U559" s="4" t="str">
         <v>faviju11@hotmail.com</v>
       </c>
@@ -38190,9 +36786,6 @@
       <c r="R560" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T560" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U560" s="4" t="str">
         <v>pbeltran@tasa.com.pe</v>
       </c>
@@ -38231,9 +36824,6 @@
       <c r="J561" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T561" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U561" s="4" t="str">
         <v>aurquiaga@tasa.com.pe</v>
       </c>
@@ -38272,9 +36862,6 @@
       <c r="J562" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T562" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U562" s="4" t="str">
         <v>iamaranto@tasa.com.pe</v>
       </c>
@@ -38313,9 +36900,6 @@
       <c r="J563" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T563" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U563" s="4" t="str">
         <v>jfiestas@tasa.com.pe</v>
       </c>
@@ -38354,9 +36938,6 @@
       <c r="J564" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T564" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U564" s="4" t="str">
         <v>aharo@tasa.com.pe</v>
       </c>
@@ -38395,9 +36976,6 @@
       <c r="J565" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T565" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U565" s="4" t="str">
         <v>equispe@tasa.com.pe</v>
       </c>
@@ -38436,9 +37014,6 @@
       <c r="J566" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T566" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U566" s="4" t="str">
         <v>muribe22295414@hotmail.com</v>
       </c>
@@ -38477,9 +37052,6 @@
       <c r="J567" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T567" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U567" s="4" t="str">
         <v>fvargas21563555@hotmail.com</v>
       </c>
@@ -38556,9 +37128,6 @@
       <c r="J569" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T569" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U569" s="4" t="str">
         <v>amelendez22252660@hotmail.com</v>
       </c>
@@ -38597,9 +37166,6 @@
       <c r="J570" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T570" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U570" s="4" t="str">
         <v>oesqueche22250149@hotmail.com</v>
       </c>
@@ -38638,9 +37204,6 @@
       <c r="J571" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T571" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U571" s="4" t="str">
         <v>asconita_30@hotmail.com</v>
       </c>
@@ -38756,7 +37319,7 @@
         <v>m</v>
       </c>
       <c r="T574" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
+        <v>otro correo en Rankmi</v>
       </c>
       <c r="U574" s="4" t="str">
         <v>kcruz@tasa.com.pe</v>
@@ -38797,7 +37360,7 @@
         <v>m</v>
       </c>
       <c r="T575" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
+        <v>otro correo en Rankmi</v>
       </c>
       <c r="U575" s="4" t="str">
         <v>gramirez@tasa.com.pe</v>
@@ -38837,9 +37400,6 @@
       <c r="J576" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T576" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U576" s="4" t="str">
         <v>lbravo@tasa.com.pe</v>
       </c>
@@ -38878,9 +37438,6 @@
       <c r="J577" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T577" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U577" s="4" t="str">
         <v>cdelatorre@tasa.com.pe</v>
       </c>
@@ -38919,9 +37476,6 @@
       <c r="J578" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T578" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U578" s="4" t="str">
         <v>rgutierrez@tasa.com.pe</v>
       </c>
@@ -38961,7 +37515,7 @@
         <v>f</v>
       </c>
       <c r="T579" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
+        <v>otro correo en Rankmi</v>
       </c>
       <c r="U579" s="4" t="str">
         <v>esalvatierra@tasa.com.pe</v>
@@ -39001,9 +37555,6 @@
       <c r="J580" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T580" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U580" s="4" t="str">
         <v>mcanelo@tasa.com.pe</v>
       </c>
@@ -39045,9 +37596,6 @@
       <c r="R581" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T581" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U581" s="4" t="str">
         <v>bfernandez@tasa.com.pe</v>
       </c>
@@ -39086,9 +37634,6 @@
       <c r="J582" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T582" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U582" s="4" t="str">
         <v>pcampos@tasa.com.pe</v>
       </c>
@@ -39127,9 +37672,6 @@
       <c r="J583" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T583" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U583" s="4" t="str">
         <v>pgarcia@tasa.com.pe</v>
       </c>
@@ -39171,9 +37713,6 @@
       <c r="R584" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T584" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U584" s="4" t="str">
         <v>jadanaque@tasa.com.pe</v>
       </c>
@@ -39212,9 +37751,6 @@
       <c r="J585" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T585" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U585" s="4" t="str">
         <v>bmacedo@tasa.com.pe</v>
       </c>
@@ -39294,9 +37830,6 @@
       <c r="J587" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T587" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U587" s="4" t="str">
         <v>czelaya@tasa.com.pe</v>
       </c>
@@ -39335,9 +37868,6 @@
       <c r="J588" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T588" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U588" s="4" t="str">
         <v>jcueva@tasa.com.pe</v>
       </c>
@@ -39379,9 +37909,6 @@
       <c r="R589" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T589" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U589" s="4" t="str">
         <v>nrosales@tasa.com.pe</v>
       </c>
@@ -39420,9 +37947,6 @@
       <c r="J590" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T590" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U590" s="4" t="str">
         <v>lvargas@tasa.com.pe</v>
       </c>
@@ -39461,9 +37985,6 @@
       <c r="J591" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T591" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U591" s="4" t="str">
         <v>edeza@tasa.com.pe</v>
       </c>
@@ -39505,9 +38026,6 @@
       <c r="R592" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T592" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U592" s="4" t="str">
         <v>jvilca@tasa.com.pe</v>
       </c>
@@ -39584,9 +38102,6 @@
       <c r="J594" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T594" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U594" s="4" t="str">
         <v>ctentaya40731801@hotmail.com</v>
       </c>
@@ -39666,9 +38181,6 @@
       <c r="J596" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T596" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U596" s="4" t="str">
         <v>ecjacya@tasa.com.pe</v>
       </c>
@@ -39707,9 +38219,6 @@
       <c r="J597" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T597" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U597" s="4" t="str">
         <v>lesanchez@tasa.com.pe</v>
       </c>
@@ -39751,9 +38260,6 @@
       <c r="R598" s="4" t="str">
         <v>identifier duplicado, username duplicado, correo duplicado</v>
       </c>
-      <c r="T598" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U598" s="4" t="str">
         <v>etasso@tasa.com.pe</v>
       </c>
@@ -39792,9 +38298,6 @@
       <c r="J599" s="4" t="str">
         <v>f</v>
       </c>
-      <c r="T599" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U599" s="4" t="str">
         <v>madriazola@tasa.com.pe</v>
       </c>
@@ -39833,9 +38336,6 @@
       <c r="J600" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T600" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U600" s="4" t="str">
         <v>jvelarde@tasa.com.pe</v>
       </c>
@@ -39912,9 +38412,6 @@
       <c r="J602" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T602" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U602" s="4" t="str">
         <v>wperalta41007182@hotmail.com</v>
       </c>
@@ -39953,9 +38450,6 @@
       <c r="J603" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T603" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U603" s="4" t="str">
         <v>asanchez@tasa.com.pe</v>
       </c>
@@ -40032,9 +38526,6 @@
       <c r="J605" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T605" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U605" s="4" t="str">
         <v>jlima@tasa.com.pe</v>
       </c>
@@ -40114,9 +38605,6 @@
       <c r="J607" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T607" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U607" s="4" t="str">
         <v>japaza30831021@hotmail.com</v>
       </c>
@@ -40155,9 +38643,6 @@
       <c r="J608" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T608" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U608" s="4" t="str">
         <v>rasectoso@gmail.com</v>
       </c>
@@ -40196,9 +38681,6 @@
       <c r="J609" s="4" t="str">
         <v>m</v>
       </c>
-      <c r="T609" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
-      </c>
       <c r="U609" s="4" t="str">
         <v>enrique_031785@hotmail.com</v>
       </c>
@@ -40321,9 +38803,6 @@
       </c>
       <c r="S612" s="4" t="str">
         <v>revisar género</v>
-      </c>
-      <c r="T612" s="4" t="str">
-        <v>otro correo en Rankmi, otro username en Rankmi</v>
       </c>
       <c r="U612" s="4" t="str">
         <v>rquintanilla80396932@hotmail.com</v>
